--- a/results.xlsx
+++ b/results.xlsx
@@ -497,7 +497,7 @@
         <v>500000</v>
       </c>
       <c r="D2" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E2" t="n">
         <v>200000</v>
@@ -506,19 +506,19 @@
         <v>50000</v>
       </c>
       <c r="G2" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H2" t="n">
         <v>-250000</v>
       </c>
       <c r="I2" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J2" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="K2" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         <v>500000</v>
       </c>
       <c r="D3" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E3" t="n">
         <v>200000</v>
@@ -541,19 +541,19 @@
         <v>50000</v>
       </c>
       <c r="G3" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H3" t="n">
         <v>-250000</v>
       </c>
       <c r="I3" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J3" t="n">
-        <v>224545.4545454545</v>
+        <v>225800</v>
       </c>
       <c r="K3" t="n">
-        <v>471545.4545454545</v>
+        <v>474180</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         <v>500000</v>
       </c>
       <c r="D4" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E4" t="n">
         <v>200000</v>
@@ -576,19 +576,19 @@
         <v>50000</v>
       </c>
       <c r="G4" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H4" t="n">
         <v>-250000</v>
       </c>
       <c r="I4" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J4" t="n">
-        <v>204132.2314049586</v>
+        <v>205272.7272727272</v>
       </c>
       <c r="K4" t="n">
-        <v>675677.6859504131</v>
+        <v>679452.7272727273</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
         <v>500000</v>
       </c>
       <c r="D5" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E5" t="n">
         <v>200000</v>
@@ -611,19 +611,19 @@
         <v>50000</v>
       </c>
       <c r="G5" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H5" t="n">
         <v>-250000</v>
       </c>
       <c r="I5" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J5" t="n">
-        <v>185574.7558226897</v>
+        <v>186611.5702479338</v>
       </c>
       <c r="K5" t="n">
-        <v>861252.4417731027</v>
+        <v>866064.2975206611</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>500000</v>
       </c>
       <c r="D6" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E6" t="n">
         <v>200000</v>
@@ -646,19 +646,19 @@
         <v>50000</v>
       </c>
       <c r="G6" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H6" t="n">
         <v>-250000</v>
       </c>
       <c r="I6" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J6" t="n">
-        <v>168704.3234751724</v>
+        <v>169646.8820435762</v>
       </c>
       <c r="K6" t="n">
-        <v>1029956.765248275</v>
+        <v>1035711.179564237</v>
       </c>
     </row>
     <row r="7">
@@ -672,7 +672,7 @@
         <v>500000</v>
       </c>
       <c r="D7" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E7" t="n">
         <v>200000</v>
@@ -681,19 +681,19 @@
         <v>50000</v>
       </c>
       <c r="G7" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H7" t="n">
         <v>-250000</v>
       </c>
       <c r="I7" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J7" t="n">
-        <v>153367.5667956113</v>
+        <v>154224.4382214329</v>
       </c>
       <c r="K7" t="n">
-        <v>1183324.332043886</v>
+        <v>1189935.61778567</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +707,7 @@
         <v>500000</v>
       </c>
       <c r="D8" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E8" t="n">
         <v>200000</v>
@@ -716,19 +716,19 @@
         <v>50000</v>
       </c>
       <c r="G8" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H8" t="n">
         <v>-250000</v>
       </c>
       <c r="I8" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J8" t="n">
-        <v>139425.0607232829</v>
+        <v>140204.0347467572</v>
       </c>
       <c r="K8" t="n">
-        <v>1322749.392767169</v>
+        <v>1330139.652532428</v>
       </c>
     </row>
     <row r="9">
@@ -742,7 +742,7 @@
         <v>500000</v>
       </c>
       <c r="D9" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E9" t="n">
         <v>200000</v>
@@ -751,19 +751,19 @@
         <v>50000</v>
       </c>
       <c r="G9" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H9" t="n">
         <v>-250000</v>
       </c>
       <c r="I9" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J9" t="n">
-        <v>126750.0552029845</v>
+        <v>127458.2134061429</v>
       </c>
       <c r="K9" t="n">
-        <v>1449499.447970154</v>
+        <v>1457597.86593857</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>500000</v>
       </c>
       <c r="D10" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E10" t="n">
         <v>200000</v>
@@ -786,19 +786,19 @@
         <v>50000</v>
       </c>
       <c r="G10" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H10" t="n">
         <v>-250000</v>
       </c>
       <c r="I10" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J10" t="n">
-        <v>115227.3229118041</v>
+        <v>115871.1030964935</v>
       </c>
       <c r="K10" t="n">
-        <v>1564726.770881958</v>
+        <v>1573468.969035064</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +812,7 @@
         <v>500000</v>
       </c>
       <c r="D11" t="n">
-        <v>3000</v>
+        <v>1620</v>
       </c>
       <c r="E11" t="n">
         <v>200000</v>
@@ -821,19 +821,19 @@
         <v>50000</v>
       </c>
       <c r="G11" t="n">
-        <v>497000</v>
+        <v>498380</v>
       </c>
       <c r="H11" t="n">
         <v>-250000</v>
       </c>
       <c r="I11" t="n">
-        <v>247000</v>
+        <v>248380</v>
       </c>
       <c r="J11" t="n">
-        <v>104752.1117380037</v>
+        <v>105337.3664513577</v>
       </c>
       <c r="K11" t="n">
-        <v>1669478.882619962</v>
+        <v>1678806.335486422</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +885,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -917,7 +917,7 @@
         <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
